--- a/docs/PTA2_DDC_100/PTA2_DDC_100_31.07.24_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731789374.4687164</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731789379.5293856</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789374.4687164.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731789379.5293856.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>289.29</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>289.74</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.4499999999999886</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731789390.961276</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731789393.7956157</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731789390.961276.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731789393.7956157.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>133.92</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>133.21</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.7099999999999795</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731789413.4816656</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731789417.9439356</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731789413.4816656.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731789417.9439356.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>6782</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6792</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>10</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -695,95 +729,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731789422.017808</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731789422.017808.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731789422.017808.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>6741.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>6741.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6747.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731789452.1764138</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731789458.015111</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789452.1764138.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731789458.015111.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>1040.6</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>1045.6</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -791,139 +837,157 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731789479.3815734</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731789479.3815734.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731789479.3815734.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>11.922</v>
       </c>
-      <c r="J8" t="n">
-        <v>11.922</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>11.859</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.06300000000000061</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731789495.6767242</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731789495.6767242.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731789495.6767242.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>128.58</v>
       </c>
-      <c r="J9" t="n">
-        <v>128.58</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>129.82</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-1.239999999999981</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731789510.4393384</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731789515.1348047</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789510.4393384.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789515.1348047.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>165</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>165.2</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -931,51 +995,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731789515.81802</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731789516.8040571</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789515.81802.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731789516.8040571.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>166.76</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>165.12</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.639999999999986</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.98</v>
       </c>
     </row>
@@ -983,51 +1053,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731789529.7401218</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731789535.405924</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789529.7401218.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731789535.405924.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>51.245</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>51.285</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1035,95 +1111,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731789539.9490926</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731789539.9490926.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731789539.9490926.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>50.61</v>
       </c>
-      <c r="J13" t="n">
-        <v>50.61</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>50.74</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1300000000000026</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731789551.8999987</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731789554.9532177</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789551.8999987.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731789554.9532177.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>1417.2</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>1421.8</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>4.599999999999909</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1131,51 +1219,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731789566.3441572</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731789569.5189412</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789566.3441572.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789569.5189412.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>61.3</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>60.85</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.4499999999999957</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -1183,51 +1277,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731789580.7136433</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731789584.5602436</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789580.7136433.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731789584.5602436.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>60.55</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>60.87</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.3200000000000003</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -1235,95 +1335,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731789602.2729275</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731789602.2729275.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731789602.2729275.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>58.38</v>
       </c>
-      <c r="J17" t="n">
-        <v>58.38</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>58.8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.4199999999999946</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731789602.8264256</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731789605.0827487</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731789602.8264256.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731789605.0827487.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>142.48</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>142.06</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.4199999999999875</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1331,139 +1443,157 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731789611.407722</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731789611.407722.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731789611.407722.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>143.56</v>
       </c>
-      <c r="J19" t="n">
-        <v>143.56</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>143.66</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.09999999999999432</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731789631.1846313</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731789631.1846313.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731789631.1846313.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>84.81999999999999</v>
       </c>
-      <c r="J20" t="n">
-        <v>84.81999999999999</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>84.88</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731789640.3899734</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731789643.518364</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731789640.3899734.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731789643.518364.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>376.74</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>373.48</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>3.259999999999991</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.8699999999999999</v>
       </c>
     </row>
@@ -1471,95 +1601,107 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731789659.5934854</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731789659.5934854.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731789659.5934854.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>0.09818</v>
       </c>
-      <c r="J22" t="n">
-        <v>0.09818</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.09991999999999999</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.001739999999999992</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-1.77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731789677.058149</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731789683.0053213</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731789677.058149.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731789683.0053213.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>34.76</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>34.605</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.1550000000000011</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -1621,19 +1763,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -1643,19 +1785,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03999999999999915</v>
+        <v>0.1700000000000017</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01999999999999957</v>
+        <v>0.08500000000000085</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08</v>
+        <v>0.34</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -1665,19 +1807,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4199999999999875</v>
+        <v>0.3199999999999932</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2099999999999937</v>
+        <v>0.1599999999999966</v>
       </c>
       <c r="E4" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="F4" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -1731,19 +1873,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-0.4199999999999946</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.4199999999999946</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-0.72</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="8">
@@ -1819,19 +1961,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1841,19 +1983,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-1.239999999999981</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-1.239999999999981</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-0.96</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="13">
@@ -1885,19 +2027,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0.001739999999999992</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-0.001739999999999992</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.77</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="15">
@@ -1907,19 +2049,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0.06300000000000061</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0.06300000000000061</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-0.53</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="16">
